--- a/data/trans_orig/IP3111_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3111_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1EC4A53-92BF-4ED3-8FFE-3AE22B19EF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7C1A51B-762A-4257-AF55-91E87F62FE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{682C1BCE-F711-4CBD-ACEA-31226F7222A3}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{792E655C-F8B1-4707-B93B-06421D9207D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -68,6 +68,96 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Todos los días</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>5 ó 6 veces semana</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>3 ó 4 veces semana</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
     <t>1 ó 2 veces semana</t>
   </si>
   <si>
@@ -98,64 +188,34 @@
     <t>21,12%</t>
   </si>
   <si>
-    <t>3 ó 4 veces semana</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>5 ó 6 veces semana</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
+    <t>menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -188,72 +248,249 @@
     <t>31,67%</t>
   </si>
   <si>
-    <t>Todos los días</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
     <t>23,15%</t>
   </si>
   <si>
@@ -266,9 +503,6 @@
     <t>22,79%</t>
   </si>
   <si>
-    <t>18,93%</t>
-  </si>
-  <si>
     <t>27,61%</t>
   </si>
   <si>
@@ -281,58 +515,31 @@
     <t>25,92%</t>
   </si>
   <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
   </si>
   <si>
     <t>6,29%</t>
@@ -362,211 +569,76 @@
     <t>10,15%</t>
   </si>
   <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
   </si>
   <si>
     <t>22,9%</t>
@@ -593,55 +665,28 @@
     <t>24,43%</t>
   </si>
   <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
   </si>
   <si>
     <t>11,65%</t>
@@ -669,51 +714,6 @@
   </si>
   <si>
     <t>14,73%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A02A36-F1C8-438E-B949-E9A043B6A43C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272FC9D1-25D5-4857-BE7F-15BE06202EA1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1223,10 +1223,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>16382</v>
+        <v>9152</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1238,10 +1238,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>16830</v>
+        <v>13196</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1253,10 +1253,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="N4" s="7">
-        <v>33212</v>
+        <v>22347</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1274,10 +1274,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="7">
-        <v>11360</v>
+        <v>14009</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1289,10 +1289,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I5" s="7">
-        <v>10958</v>
+        <v>8995</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1304,10 +1304,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N5" s="7">
-        <v>22318</v>
+        <v>23003</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1325,10 +1325,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="7">
-        <v>14009</v>
+        <v>11360</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1340,10 +1340,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I6" s="7">
-        <v>8995</v>
+        <v>10958</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1355,10 +1355,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N6" s="7">
-        <v>23003</v>
+        <v>22318</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1376,10 +1376,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7">
-        <v>26514</v>
+        <v>16382</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1391,10 +1391,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I7" s="7">
-        <v>26110</v>
+        <v>16830</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1406,10 +1406,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="N7" s="7">
-        <v>52624</v>
+        <v>33212</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1427,10 +1427,10 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D8" s="7">
-        <v>9152</v>
+        <v>25163</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -1442,10 +1442,10 @@
         <v>53</v>
       </c>
       <c r="H8" s="7">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I8" s="7">
-        <v>13196</v>
+        <v>16639</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -1457,10 +1457,10 @@
         <v>56</v>
       </c>
       <c r="M8" s="7">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="N8" s="7">
-        <v>22347</v>
+        <v>41802</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -1478,10 +1478,10 @@
         <v>60</v>
       </c>
       <c r="C9" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="7">
-        <v>25163</v>
+        <v>26514</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>61</v>
@@ -1493,10 +1493,10 @@
         <v>63</v>
       </c>
       <c r="H9" s="7">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="I9" s="7">
-        <v>16639</v>
+        <v>26110</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>64</v>
@@ -1508,10 +1508,10 @@
         <v>66</v>
       </c>
       <c r="M9" s="7">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="N9" s="7">
-        <v>41802</v>
+        <v>52624</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>67</v>
@@ -1582,10 +1582,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7">
-        <v>92320</v>
+        <v>20962</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>72</v>
@@ -1597,10 +1597,10 @@
         <v>74</v>
       </c>
       <c r="H11" s="7">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="I11" s="7">
-        <v>79018</v>
+        <v>23247</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>75</v>
@@ -1612,10 +1612,10 @@
         <v>77</v>
       </c>
       <c r="M11" s="7">
-        <v>227</v>
+        <v>59</v>
       </c>
       <c r="N11" s="7">
-        <v>171337</v>
+        <v>44209</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>78</v>
@@ -1633,10 +1633,10 @@
         <v>20</v>
       </c>
       <c r="C12" s="7">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="D12" s="7">
-        <v>78644</v>
+        <v>26290</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>81</v>
@@ -1648,10 +1648,10 @@
         <v>83</v>
       </c>
       <c r="H12" s="7">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="I12" s="7">
-        <v>61402</v>
+        <v>22503</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>84</v>
@@ -1663,10 +1663,10 @@
         <v>86</v>
       </c>
       <c r="M12" s="7">
-        <v>187</v>
+        <v>62</v>
       </c>
       <c r="N12" s="7">
-        <v>140047</v>
+        <v>48793</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>87</v>
@@ -1684,10 +1684,10 @@
         <v>30</v>
       </c>
       <c r="C13" s="7">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>52488</v>
+        <v>28814</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>90</v>
@@ -1699,10 +1699,10 @@
         <v>92</v>
       </c>
       <c r="H13" s="7">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I13" s="7">
-        <v>62632</v>
+        <v>44746</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>93</v>
@@ -1714,19 +1714,19 @@
         <v>95</v>
       </c>
       <c r="M13" s="7">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="N13" s="7">
-        <v>115120</v>
+        <v>73560</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>96</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1735,49 +1735,49 @@
         <v>40</v>
       </c>
       <c r="C14" s="7">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D14" s="7">
-        <v>25069</v>
+        <v>52946</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>68</v>
+      </c>
+      <c r="I14" s="7">
+        <v>44439</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H14" s="7">
-        <v>47</v>
-      </c>
-      <c r="I14" s="7">
-        <v>35990</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>137</v>
+      </c>
+      <c r="N14" s="7">
+        <v>97384</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="M14" s="7">
-        <v>80</v>
-      </c>
-      <c r="N14" s="7">
-        <v>61059</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1786,49 +1786,49 @@
         <v>50</v>
       </c>
       <c r="C15" s="7">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D15" s="7">
-        <v>65990</v>
+        <v>44850</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7">
+        <v>47</v>
+      </c>
+      <c r="I15" s="7">
+        <v>32090</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H15" s="7">
-        <v>56</v>
-      </c>
-      <c r="I15" s="7">
-        <v>44804</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>110</v>
+      </c>
+      <c r="N15" s="7">
+        <v>76940</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M15" s="7">
-        <v>117</v>
-      </c>
-      <c r="N15" s="7">
-        <v>110794</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1837,49 +1837,49 @@
         <v>60</v>
       </c>
       <c r="C16" s="7">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="D16" s="7">
-        <v>84249</v>
+        <v>30612</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>45</v>
+      </c>
+      <c r="I16" s="7">
+        <v>31243</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H16" s="7">
-        <v>87</v>
-      </c>
-      <c r="I16" s="7">
-        <v>62858</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>84</v>
+      </c>
+      <c r="N16" s="7">
+        <v>61855</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="M16" s="7">
-        <v>188</v>
-      </c>
-      <c r="N16" s="7">
-        <v>147106</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1888,10 +1888,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>476</v>
+        <v>270</v>
       </c>
       <c r="D17" s="7">
-        <v>398760</v>
+        <v>204474</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>70</v>
@@ -1903,10 +1903,10 @@
         <v>70</v>
       </c>
       <c r="H17" s="7">
-        <v>458</v>
+        <v>281</v>
       </c>
       <c r="I17" s="7">
-        <v>346704</v>
+        <v>198267</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>70</v>
@@ -1918,10 +1918,10 @@
         <v>70</v>
       </c>
       <c r="M17" s="7">
-        <v>934</v>
+        <v>551</v>
       </c>
       <c r="N17" s="7">
-        <v>745464</v>
+        <v>402741</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>70</v>
@@ -1935,55 +1935,55 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D18" s="7">
-        <v>52946</v>
+        <v>65990</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>56</v>
+      </c>
+      <c r="I18" s="7">
+        <v>44804</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H18" s="7">
-        <v>68</v>
-      </c>
-      <c r="I18" s="7">
-        <v>44439</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M18" s="7">
+        <v>117</v>
+      </c>
+      <c r="N18" s="7">
+        <v>110794</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="M18" s="7">
-        <v>137</v>
-      </c>
-      <c r="N18" s="7">
-        <v>97384</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1992,49 +1992,49 @@
         <v>20</v>
       </c>
       <c r="C19" s="7">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D19" s="7">
-        <v>28814</v>
+        <v>52488</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" s="7">
+        <v>73</v>
+      </c>
+      <c r="I19" s="7">
+        <v>62632</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="7">
-        <v>60</v>
-      </c>
-      <c r="I19" s="7">
-        <v>44746</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>135</v>
+      </c>
+      <c r="N19" s="7">
+        <v>115120</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="M19" s="7">
-        <v>99</v>
-      </c>
-      <c r="N19" s="7">
-        <v>73560</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,49 +2043,49 @@
         <v>30</v>
       </c>
       <c r="C20" s="7">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="D20" s="7">
-        <v>26290</v>
+        <v>78644</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>90</v>
+      </c>
+      <c r="I20" s="7">
+        <v>61402</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H20" s="7">
-        <v>29</v>
-      </c>
-      <c r="I20" s="7">
-        <v>22503</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>187</v>
+      </c>
+      <c r="N20" s="7">
+        <v>140047</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="M20" s="7">
-        <v>62</v>
-      </c>
-      <c r="N20" s="7">
-        <v>48793</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2094,49 +2094,49 @@
         <v>40</v>
       </c>
       <c r="C21" s="7">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="D21" s="7">
-        <v>30612</v>
+        <v>92320</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>153</v>
       </c>
       <c r="H21" s="7">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="I21" s="7">
-        <v>31243</v>
+        <v>79018</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>154</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>227</v>
+      </c>
+      <c r="N21" s="7">
+        <v>171337</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="M21" s="7">
-        <v>84</v>
-      </c>
-      <c r="N21" s="7">
-        <v>61855</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2145,40 +2145,40 @@
         <v>50</v>
       </c>
       <c r="C22" s="7">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="D22" s="7">
-        <v>20962</v>
+        <v>84249</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>87</v>
+      </c>
+      <c r="I22" s="7">
+        <v>62858</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H22" s="7">
-        <v>32</v>
-      </c>
-      <c r="I22" s="7">
-        <v>23247</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="M22" s="7">
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="N22" s="7">
-        <v>44209</v>
+        <v>147106</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>165</v>
@@ -2196,10 +2196,10 @@
         <v>60</v>
       </c>
       <c r="C23" s="7">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="D23" s="7">
-        <v>44850</v>
+        <v>25069</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>168</v>
@@ -2214,7 +2214,7 @@
         <v>47</v>
       </c>
       <c r="I23" s="7">
-        <v>32090</v>
+        <v>35990</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>171</v>
@@ -2226,10 +2226,10 @@
         <v>173</v>
       </c>
       <c r="M23" s="7">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="N23" s="7">
-        <v>76940</v>
+        <v>61059</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>174</v>
@@ -2247,10 +2247,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>270</v>
+        <v>476</v>
       </c>
       <c r="D24" s="7">
-        <v>204474</v>
+        <v>398760</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>70</v>
@@ -2262,10 +2262,10 @@
         <v>70</v>
       </c>
       <c r="H24" s="7">
-        <v>281</v>
+        <v>458</v>
       </c>
       <c r="I24" s="7">
-        <v>198267</v>
+        <v>346704</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>70</v>
@@ -2277,10 +2277,10 @@
         <v>70</v>
       </c>
       <c r="M24" s="7">
-        <v>551</v>
+        <v>934</v>
       </c>
       <c r="N24" s="7">
-        <v>402741</v>
+        <v>745464</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>70</v>
@@ -2300,49 +2300,49 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>220</v>
+        <v>105</v>
       </c>
       <c r="D25" s="7">
-        <v>161648</v>
+        <v>96104</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>112</v>
+      </c>
+      <c r="I25" s="7">
+        <v>81247</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="H25" s="7">
-        <v>206</v>
-      </c>
-      <c r="I25" s="7">
-        <v>140286</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>217</v>
+      </c>
+      <c r="N25" s="7">
+        <v>177351</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="M25" s="7">
-        <v>426</v>
-      </c>
-      <c r="N25" s="7">
-        <v>301934</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,40 +2351,40 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="D26" s="7">
-        <v>118819</v>
+        <v>92787</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>119</v>
+      </c>
+      <c r="I26" s="7">
+        <v>94129</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H26" s="7">
-        <v>169</v>
-      </c>
-      <c r="I26" s="7">
-        <v>117106</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="L26" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="M26" s="7">
-        <v>327</v>
+        <v>237</v>
       </c>
       <c r="N26" s="7">
-        <v>235924</v>
+        <v>186917</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>190</v>
@@ -2402,10 +2402,10 @@
         <v>30</v>
       </c>
       <c r="C27" s="7">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="D27" s="7">
-        <v>92787</v>
+        <v>118819</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>193</v>
@@ -2417,10 +2417,10 @@
         <v>195</v>
       </c>
       <c r="H27" s="7">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="I27" s="7">
-        <v>94129</v>
+        <v>117106</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>196</v>
@@ -2429,22 +2429,22 @@
         <v>197</v>
       </c>
       <c r="L27" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M27" s="7">
+        <v>327</v>
+      </c>
+      <c r="N27" s="7">
+        <v>235924</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="M27" s="7">
-        <v>237</v>
-      </c>
-      <c r="N27" s="7">
-        <v>186917</v>
-      </c>
-      <c r="O27" s="7" t="s">
+      <c r="P27" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,49 +2453,49 @@
         <v>40</v>
       </c>
       <c r="C28" s="7">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="D28" s="7">
-        <v>82194</v>
+        <v>161648</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="7">
+        <v>206</v>
+      </c>
+      <c r="I28" s="7">
+        <v>140286</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="H28" s="7">
-        <v>140</v>
-      </c>
-      <c r="I28" s="7">
-        <v>93343</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>426</v>
+      </c>
+      <c r="N28" s="7">
+        <v>301934</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="M28" s="7">
-        <v>262</v>
-      </c>
-      <c r="N28" s="7">
-        <v>175538</v>
-      </c>
-      <c r="O28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,49 +2504,49 @@
         <v>50</v>
       </c>
       <c r="C29" s="7">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="D29" s="7">
-        <v>96104</v>
+        <v>154261</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H29" s="7">
+        <v>166</v>
+      </c>
+      <c r="I29" s="7">
+        <v>111587</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H29" s="7">
-        <v>112</v>
-      </c>
-      <c r="I29" s="7">
-        <v>81247</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>381</v>
+      </c>
+      <c r="N29" s="7">
+        <v>265848</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="M29" s="7">
-        <v>217</v>
-      </c>
-      <c r="N29" s="7">
-        <v>177351</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,25 +2555,25 @@
         <v>60</v>
       </c>
       <c r="C30" s="7">
-        <v>215</v>
+        <v>122</v>
       </c>
       <c r="D30" s="7">
-        <v>154261</v>
+        <v>82194</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>219</v>
       </c>
       <c r="H30" s="7">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="I30" s="7">
-        <v>111587</v>
+        <v>93343</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>220</v>
@@ -2585,10 +2585,10 @@
         <v>222</v>
       </c>
       <c r="M30" s="7">
-        <v>381</v>
+        <v>262</v>
       </c>
       <c r="N30" s="7">
-        <v>265848</v>
+        <v>175538</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>223</v>

--- a/data/trans_orig/IP3111_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3111_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7C1A51B-762A-4257-AF55-91E87F62FE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77C169B2-034D-4FB9-AF67-6C696AEE46B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{792E655C-F8B1-4707-B93B-06421D9207D5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5CAD2857-E438-4157-94E0-4E4E9035D0FD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="277">
   <si>
     <t>Menores según la frecuencia de bebe refrescos u otras bebidas que contienen azúcar en 2023 (Tasa respuesta: 96,35%)</t>
   </si>
@@ -65,655 +65,808 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>1 ó 2 veces semana</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>3 ó 4 veces semana</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>5 ó 6 veces semana</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
   </si>
   <si>
     <t>Todos los días</t>
   </si>
   <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
   </si>
   <si>
     <t>14,23%</t>
   </si>
   <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
   </si>
   <si>
     <t>15,25%</t>
   </si>
   <si>
-    <t>5 ó 6 veces semana</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
   </si>
   <si>
     <t>15,29%</t>
   </si>
   <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>3 ó 4 veces semana</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>1 ó 2 veces semana</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
   </si>
   <si>
     <t>15,36%</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -724,7 +877,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -820,39 +973,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -904,7 +1057,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1015,13 +1168,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1030,6 +1176,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1094,19 +1247,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272FC9D1-25D5-4857-BE7F-15BE06202EA1}">
-  <dimension ref="A1:Q31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49CCF4CC-8257-47C8-84B9-3ABA1C7745D6}">
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1223,10 +1396,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7">
-        <v>9152</v>
+        <v>13593</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1238,10 +1411,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I4" s="7">
-        <v>13196</v>
+        <v>17655</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1253,10 +1426,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="N4" s="7">
-        <v>22347</v>
+        <v>31247</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1274,10 +1447,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7">
-        <v>14009</v>
+        <v>10794</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1289,10 +1462,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I5" s="7">
-        <v>8995</v>
+        <v>6983</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1304,10 +1477,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N5" s="7">
-        <v>23003</v>
+        <v>17777</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1325,10 +1498,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>11360</v>
+        <v>8121</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1340,10 +1513,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I6" s="7">
-        <v>10958</v>
+        <v>6837</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1355,10 +1528,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N6" s="7">
-        <v>22318</v>
+        <v>14958</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1376,10 +1549,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>16382</v>
+        <v>4561</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1391,10 +1564,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>16830</v>
+        <v>5902</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1406,10 +1579,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="N7" s="7">
-        <v>33212</v>
+        <v>10463</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1427,10 +1600,10 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>25163</v>
+        <v>4084</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -1442,10 +1615,10 @@
         <v>53</v>
       </c>
       <c r="H8" s="7">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>16639</v>
+        <v>4981</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -1457,10 +1630,10 @@
         <v>56</v>
       </c>
       <c r="M8" s="7">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="N8" s="7">
-        <v>41802</v>
+        <v>9065</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -1478,10 +1651,10 @@
         <v>60</v>
       </c>
       <c r="C9" s="7">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>26514</v>
+        <v>1992</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>61</v>
@@ -1493,10 +1666,10 @@
         <v>63</v>
       </c>
       <c r="H9" s="7">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="I9" s="7">
-        <v>26110</v>
+        <v>3934</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>64</v>
@@ -1508,10 +1681,10 @@
         <v>66</v>
       </c>
       <c r="M9" s="7">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="N9" s="7">
-        <v>52624</v>
+        <v>5926</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>67</v>
@@ -1529,10 +1702,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="7">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="D10" s="7">
-        <v>102579</v>
+        <v>43144</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>70</v>
@@ -1544,10 +1717,10 @@
         <v>70</v>
       </c>
       <c r="H10" s="7">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="I10" s="7">
-        <v>92727</v>
+        <v>46293</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>70</v>
@@ -1559,10 +1732,10 @@
         <v>70</v>
       </c>
       <c r="M10" s="7">
-        <v>365</v>
+        <v>164</v>
       </c>
       <c r="N10" s="7">
-        <v>195306</v>
+        <v>89436</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>70</v>
@@ -1582,10 +1755,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D11" s="7">
-        <v>20962</v>
+        <v>32706</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>72</v>
@@ -1597,10 +1770,10 @@
         <v>74</v>
       </c>
       <c r="H11" s="7">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I11" s="7">
-        <v>23247</v>
+        <v>26835</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>75</v>
@@ -1612,10 +1785,10 @@
         <v>77</v>
       </c>
       <c r="M11" s="7">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="N11" s="7">
-        <v>44209</v>
+        <v>59542</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>78</v>
@@ -1633,10 +1806,10 @@
         <v>20</v>
       </c>
       <c r="C12" s="7">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D12" s="7">
-        <v>26290</v>
+        <v>39037</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>81</v>
@@ -1648,10 +1821,10 @@
         <v>83</v>
       </c>
       <c r="H12" s="7">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I12" s="7">
-        <v>22503</v>
+        <v>23211</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>84</v>
@@ -1660,22 +1833,22 @@
         <v>85</v>
       </c>
       <c r="L12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="7">
+        <v>107</v>
+      </c>
+      <c r="N12" s="7">
+        <v>62248</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="M12" s="7">
-        <v>62</v>
-      </c>
-      <c r="N12" s="7">
-        <v>48793</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1684,46 +1857,46 @@
         <v>30</v>
       </c>
       <c r="C13" s="7">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D13" s="7">
-        <v>28814</v>
+        <v>40298</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>63</v>
+      </c>
+      <c r="I13" s="7">
+        <v>35599</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="7">
-        <v>60</v>
-      </c>
-      <c r="I13" s="7">
-        <v>44746</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>121</v>
+      </c>
+      <c r="N13" s="7">
+        <v>75897</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="M13" s="7">
-        <v>99</v>
-      </c>
-      <c r="N13" s="7">
-        <v>73560</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>97</v>
@@ -1735,10 +1908,10 @@
         <v>40</v>
       </c>
       <c r="C14" s="7">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="D14" s="7">
-        <v>52946</v>
+        <v>20838</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>98</v>
@@ -1750,10 +1923,10 @@
         <v>100</v>
       </c>
       <c r="H14" s="7">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="I14" s="7">
-        <v>44439</v>
+        <v>30744</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>101</v>
@@ -1765,10 +1938,10 @@
         <v>103</v>
       </c>
       <c r="M14" s="7">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="N14" s="7">
-        <v>97384</v>
+        <v>51582</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>104</v>
@@ -1786,49 +1959,49 @@
         <v>50</v>
       </c>
       <c r="C15" s="7">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7">
+        <v>24634</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="7">
+        <v>26</v>
+      </c>
+      <c r="I15" s="7">
+        <v>16688</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M15" s="7">
         <v>63</v>
       </c>
-      <c r="D15" s="7">
-        <v>44850</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" s="7">
-        <v>47</v>
-      </c>
-      <c r="I15" s="7">
-        <v>32090</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L15" s="7" t="s">
+      <c r="N15" s="7">
+        <v>41321</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M15" s="7">
-        <v>110</v>
-      </c>
-      <c r="N15" s="7">
-        <v>76940</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1837,25 +2010,25 @@
         <v>60</v>
       </c>
       <c r="C16" s="7">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D16" s="7">
-        <v>30612</v>
+        <v>17204</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>117</v>
       </c>
       <c r="H16" s="7">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I16" s="7">
-        <v>31243</v>
+        <v>25688</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>118</v>
@@ -1867,10 +2040,10 @@
         <v>120</v>
       </c>
       <c r="M16" s="7">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="N16" s="7">
-        <v>61855</v>
+        <v>42892</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>121</v>
@@ -1888,10 +2061,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D17" s="7">
-        <v>204474</v>
+        <v>174717</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>70</v>
@@ -1903,10 +2076,10 @@
         <v>70</v>
       </c>
       <c r="H17" s="7">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I17" s="7">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>70</v>
@@ -1918,10 +2091,10 @@
         <v>70</v>
       </c>
       <c r="M17" s="7">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="N17" s="7">
-        <v>402741</v>
+        <v>333482</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>70</v>
@@ -1941,10 +2114,10 @@
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="D18" s="7">
-        <v>65990</v>
+        <v>22365</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>125</v>
@@ -1956,10 +2129,10 @@
         <v>127</v>
       </c>
       <c r="H18" s="7">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="I18" s="7">
-        <v>44804</v>
+        <v>22911</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>128</v>
@@ -1968,16 +2141,16 @@
         <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="N18" s="7">
-        <v>110794</v>
+        <v>45276</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>131</v>
@@ -1992,10 +2165,10 @@
         <v>20</v>
       </c>
       <c r="C19" s="7">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D19" s="7">
-        <v>52488</v>
+        <v>42461</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>133</v>
@@ -2007,10 +2180,10 @@
         <v>135</v>
       </c>
       <c r="H19" s="7">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="I19" s="7">
-        <v>62632</v>
+        <v>37499</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>136</v>
@@ -2022,10 +2195,10 @@
         <v>138</v>
       </c>
       <c r="M19" s="7">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="N19" s="7">
-        <v>115120</v>
+        <v>79960</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>139</v>
@@ -2043,10 +2216,10 @@
         <v>30</v>
       </c>
       <c r="C20" s="7">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="D20" s="7">
-        <v>78644</v>
+        <v>49453</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>142</v>
@@ -2058,10 +2231,10 @@
         <v>144</v>
       </c>
       <c r="H20" s="7">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="I20" s="7">
-        <v>61402</v>
+        <v>35717</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>145</v>
@@ -2073,10 +2246,10 @@
         <v>147</v>
       </c>
       <c r="M20" s="7">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="N20" s="7">
-        <v>140047</v>
+        <v>85170</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>148</v>
@@ -2094,40 +2267,40 @@
         <v>40</v>
       </c>
       <c r="C21" s="7">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="D21" s="7">
-        <v>92320</v>
+        <v>33996</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>45</v>
+      </c>
+      <c r="I21" s="7">
+        <v>34665</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="7">
-        <v>105</v>
-      </c>
-      <c r="I21" s="7">
-        <v>79018</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>155</v>
       </c>
       <c r="M21" s="7">
-        <v>227</v>
+        <v>90</v>
       </c>
       <c r="N21" s="7">
-        <v>171337</v>
+        <v>68661</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>156</v>
@@ -2145,10 +2318,10 @@
         <v>50</v>
       </c>
       <c r="C22" s="7">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="D22" s="7">
-        <v>84249</v>
+        <v>27189</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>159</v>
@@ -2160,10 +2333,10 @@
         <v>161</v>
       </c>
       <c r="H22" s="7">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="I22" s="7">
-        <v>62858</v>
+        <v>26676</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>162</v>
@@ -2175,19 +2348,19 @@
         <v>164</v>
       </c>
       <c r="M22" s="7">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="N22" s="7">
-        <v>147106</v>
+        <v>53865</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,49 +2369,49 @@
         <v>60</v>
       </c>
       <c r="C23" s="7">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D23" s="7">
-        <v>25069</v>
+        <v>27013</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="7">
+        <v>23</v>
+      </c>
+      <c r="I23" s="7">
+        <v>18645</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H23" s="7">
-        <v>47</v>
-      </c>
-      <c r="I23" s="7">
-        <v>35990</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>53</v>
+      </c>
+      <c r="N23" s="7">
+        <v>45658</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="M23" s="7">
-        <v>80</v>
-      </c>
-      <c r="N23" s="7">
-        <v>61059</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,40 +2420,40 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>243</v>
+      </c>
+      <c r="D24" s="7">
+        <v>202478</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="7">
+        <v>233</v>
+      </c>
+      <c r="I24" s="7">
+        <v>176113</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M24" s="7">
         <v>476</v>
       </c>
-      <c r="D24" s="7">
-        <v>398760</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="7">
-        <v>458</v>
-      </c>
-      <c r="I24" s="7">
-        <v>346704</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M24" s="7">
-        <v>934</v>
-      </c>
       <c r="N24" s="7">
-        <v>745464</v>
+        <v>378591</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>70</v>
@@ -2294,55 +2467,55 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="D25" s="7">
-        <v>96104</v>
+        <v>13531</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>178</v>
       </c>
       <c r="H25" s="7">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="I25" s="7">
-        <v>81247</v>
+        <v>25941</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
-        <v>217</v>
+        <v>53</v>
       </c>
       <c r="N25" s="7">
-        <v>177351</v>
+        <v>39472</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,49 +2524,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="D26" s="7">
-        <v>92787</v>
+        <v>61969</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="I26" s="7">
-        <v>94129</v>
+        <v>43894</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
-        <v>237</v>
+        <v>136</v>
       </c>
       <c r="N26" s="7">
-        <v>186917</v>
+        <v>105863</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,13 +2575,13 @@
         <v>30</v>
       </c>
       <c r="C27" s="7">
-        <v>158</v>
+        <v>86</v>
       </c>
       <c r="D27" s="7">
-        <v>118819</v>
+        <v>63775</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>194</v>
@@ -2417,25 +2590,25 @@
         <v>195</v>
       </c>
       <c r="H27" s="7">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="I27" s="7">
-        <v>117106</v>
+        <v>62134</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>196</v>
       </c>
       <c r="K27" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="L27" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="M27" s="7">
-        <v>327</v>
+        <v>168</v>
       </c>
       <c r="N27" s="7">
-        <v>235924</v>
+        <v>125908</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>198</v>
@@ -2453,10 +2626,10 @@
         <v>40</v>
       </c>
       <c r="C28" s="7">
-        <v>220</v>
+        <v>71</v>
       </c>
       <c r="D28" s="7">
-        <v>161648</v>
+        <v>59423</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>201</v>
@@ -2468,25 +2641,25 @@
         <v>203</v>
       </c>
       <c r="H28" s="7">
-        <v>206</v>
+        <v>68</v>
       </c>
       <c r="I28" s="7">
-        <v>140286</v>
+        <v>45795</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>205</v>
       </c>
       <c r="M28" s="7">
-        <v>426</v>
+        <v>139</v>
       </c>
       <c r="N28" s="7">
-        <v>301934</v>
+        <v>105219</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>206</v>
@@ -2504,49 +2677,49 @@
         <v>50</v>
       </c>
       <c r="C29" s="7">
-        <v>215</v>
+        <v>44</v>
       </c>
       <c r="D29" s="7">
-        <v>154261</v>
+        <v>36881</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>209</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H29" s="7">
-        <v>166</v>
+        <v>51</v>
       </c>
       <c r="I29" s="7">
-        <v>111587</v>
+        <v>45784</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>95</v>
+      </c>
+      <c r="N29" s="7">
+        <v>82665</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="M29" s="7">
-        <v>381</v>
-      </c>
-      <c r="N29" s="7">
-        <v>265848</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,49 +2728,49 @@
         <v>60</v>
       </c>
       <c r="C30" s="7">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="D30" s="7">
-        <v>82194</v>
+        <v>49896</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>42</v>
+      </c>
+      <c r="I30" s="7">
+        <v>32979</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="H30" s="7">
-        <v>140</v>
-      </c>
-      <c r="I30" s="7">
-        <v>93343</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>86</v>
+      </c>
+      <c r="N30" s="7">
+        <v>82875</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="M30" s="7">
-        <v>262</v>
-      </c>
-      <c r="N30" s="7">
-        <v>175538</v>
-      </c>
-      <c r="O30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,55 +2779,420 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>339</v>
+      </c>
+      <c r="D31" s="7">
+        <v>285474</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="7">
+        <v>338</v>
+      </c>
+      <c r="I31" s="7">
+        <v>256528</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M31" s="7">
+        <v>677</v>
+      </c>
+      <c r="N31" s="7">
+        <v>542002</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>122</v>
+      </c>
+      <c r="D32" s="7">
+        <v>82194</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H32" s="7">
+        <v>140</v>
+      </c>
+      <c r="I32" s="7">
+        <v>93343</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M32" s="7">
+        <v>262</v>
+      </c>
+      <c r="N32" s="7">
+        <v>175538</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>215</v>
+      </c>
+      <c r="D33" s="7">
+        <v>154261</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H33" s="7">
+        <v>166</v>
+      </c>
+      <c r="I33" s="7">
+        <v>111587</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="M33" s="7">
+        <v>381</v>
+      </c>
+      <c r="N33" s="7">
+        <v>265848</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>220</v>
+      </c>
+      <c r="D34" s="7">
+        <v>161648</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H34" s="7">
+        <v>206</v>
+      </c>
+      <c r="I34" s="7">
+        <v>140286</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M34" s="7">
+        <v>426</v>
+      </c>
+      <c r="N34" s="7">
+        <v>301934</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="7">
+        <v>158</v>
+      </c>
+      <c r="D35" s="7">
+        <v>118819</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H35" s="7">
+        <v>169</v>
+      </c>
+      <c r="I35" s="7">
+        <v>117106</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M35" s="7">
+        <v>327</v>
+      </c>
+      <c r="N35" s="7">
+        <v>235924</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="7">
+        <v>118</v>
+      </c>
+      <c r="D36" s="7">
+        <v>92787</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H36" s="7">
+        <v>119</v>
+      </c>
+      <c r="I36" s="7">
+        <v>94129</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="M36" s="7">
+        <v>237</v>
+      </c>
+      <c r="N36" s="7">
+        <v>186917</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="7">
+        <v>105</v>
+      </c>
+      <c r="D37" s="7">
+        <v>96104</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H37" s="7">
+        <v>112</v>
+      </c>
+      <c r="I37" s="7">
+        <v>81247</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M37" s="7">
+        <v>217</v>
+      </c>
+      <c r="N37" s="7">
+        <v>177351</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="7">
         <v>938</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D38" s="7">
         <v>705813</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38" s="7">
         <v>912</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I38" s="7">
         <v>637698</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M38" s="7">
         <v>1850</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N38" s="7">
         <v>1343511</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>70</v>
+      <c r="O38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A32:A38"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP3111_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3111_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77C169B2-034D-4FB9-AF67-6C696AEE46B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BA783F2-03D9-4573-A99A-CFE2B525899D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5CAD2857-E438-4157-94E0-4E4E9035D0FD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0FCB18D-8581-41EF-8880-124B28BFF6EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="276">
   <si>
     <t>Menores según la frecuencia de bebe refrescos u otras bebidas que contienen azúcar en 2023 (Tasa respuesta: 96,35%)</t>
   </si>
@@ -74,796 +74,793 @@
     <t>31,51%</t>
   </si>
   <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>1 ó 2 veces semana</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>3 ó 4 veces semana</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>5 ó 6 veces semana</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>Todos los días</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
     <t>22,0%</t>
   </si>
   <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>1 ó 2 veces semana</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>3 ó 4 veces semana</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>5 ó 6 veces semana</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>Todos los días</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
   </si>
   <si>
     <t>14,29%</t>
   </si>
   <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
     <t>19,55%</t>
   </si>
   <si>
     <t>18,36%</t>
   </si>
   <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
   </si>
   <si>
     <t>17,56%</t>
   </si>
   <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
+    <t>15,87%</t>
   </si>
   <si>
     <t>13,15%</t>
   </si>
   <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
   </si>
   <si>
     <t>13,91%</t>
   </si>
   <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
   </si>
   <si>
     <t>13,62%</t>
   </si>
   <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
   </si>
   <si>
     <t>12,74%</t>
   </si>
   <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1278,7 +1275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49CCF4CC-8257-47C8-84B9-3ABA1C7745D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4E5057-4EA0-4FC6-B499-BF9AB952692D}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1833,7 +1830,7 @@
         <v>85</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="M12" s="7">
         <v>107</v>
@@ -1842,13 +1839,13 @@
         <v>62248</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1863,13 +1860,13 @@
         <v>40298</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H13" s="7">
         <v>63</v>
@@ -1878,13 +1875,13 @@
         <v>35599</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
@@ -1893,13 +1890,13 @@
         <v>75897</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1914,13 +1911,13 @@
         <v>20838</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H14" s="7">
         <v>46</v>
@@ -1929,13 +1926,13 @@
         <v>30744</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M14" s="7">
         <v>79</v>
@@ -1944,13 +1941,13 @@
         <v>51582</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1965,13 +1962,13 @@
         <v>24634</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H15" s="7">
         <v>26</v>
@@ -1980,13 +1977,13 @@
         <v>16688</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M15" s="7">
         <v>63</v>
@@ -1995,13 +1992,13 @@
         <v>41321</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,13 +2013,13 @@
         <v>17204</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -2031,13 +2028,13 @@
         <v>25688</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M16" s="7">
         <v>67</v>
@@ -2046,13 +2043,13 @@
         <v>42892</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,7 +2105,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2120,13 +2117,13 @@
         <v>22365</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H18" s="7">
         <v>32</v>
@@ -2135,13 +2132,13 @@
         <v>22911</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M18" s="7">
         <v>56</v>
@@ -2150,13 +2147,13 @@
         <v>45276</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,13 +2168,13 @@
         <v>42461</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H19" s="7">
         <v>50</v>
@@ -2186,13 +2183,13 @@
         <v>37499</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M19" s="7">
         <v>102</v>
@@ -2201,13 +2198,13 @@
         <v>79960</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,13 +2219,13 @@
         <v>49453</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H20" s="7">
         <v>49</v>
@@ -2237,13 +2234,13 @@
         <v>35717</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M20" s="7">
         <v>111</v>
@@ -2252,13 +2249,13 @@
         <v>85170</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,13 +2270,13 @@
         <v>33996</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H21" s="7">
         <v>45</v>
@@ -2288,13 +2285,13 @@
         <v>34665</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M21" s="7">
         <v>90</v>
@@ -2303,13 +2300,13 @@
         <v>68661</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2324,13 +2321,13 @@
         <v>27189</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -2339,13 +2336,13 @@
         <v>26676</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -2354,13 +2351,13 @@
         <v>53865</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2375,13 +2372,13 @@
         <v>27013</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -2390,13 +2387,13 @@
         <v>18645</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M23" s="7">
         <v>53</v>
@@ -2405,13 +2402,13 @@
         <v>45658</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,7 +2464,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2479,13 +2476,13 @@
         <v>13531</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -2494,13 +2491,13 @@
         <v>25941</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>53</v>
@@ -2509,13 +2506,13 @@
         <v>39472</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,13 +2527,13 @@
         <v>61969</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H26" s="7">
         <v>62</v>
@@ -2545,13 +2542,13 @@
         <v>43894</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M26" s="7">
         <v>136</v>
@@ -2560,13 +2557,13 @@
         <v>105863</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,10 +2581,10 @@
         <v>81</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H27" s="7">
         <v>82</v>
@@ -2596,13 +2593,13 @@
         <v>62134</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M27" s="7">
         <v>168</v>
@@ -2611,13 +2608,13 @@
         <v>125908</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,13 +2629,13 @@
         <v>59423</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H28" s="7">
         <v>68</v>
@@ -2650,10 +2647,10 @@
         <v>78</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M28" s="7">
         <v>139</v>
@@ -2662,13 +2659,13 @@
         <v>105219</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,13 +2680,13 @@
         <v>36881</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H29" s="7">
         <v>51</v>
@@ -2701,10 +2698,10 @@
         <v>78</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="M29" s="7">
         <v>95</v>
@@ -2713,13 +2710,13 @@
         <v>82665</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,13 +2731,13 @@
         <v>49896</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H30" s="7">
         <v>42</v>
@@ -2749,13 +2746,13 @@
         <v>32979</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M30" s="7">
         <v>86</v>
@@ -2764,13 +2761,13 @@
         <v>82875</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,13 +2835,13 @@
         <v>82194</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H32" s="7">
         <v>140</v>
@@ -2853,13 +2850,13 @@
         <v>93343</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>228</v>
+        <v>106</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M32" s="7">
         <v>262</v>
@@ -2868,13 +2865,13 @@
         <v>175538</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>231</v>
+        <v>38</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>232</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,10 +2952,10 @@
         <v>140286</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>245</v>
+        <v>102</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>246</v>
@@ -3027,7 +3024,7 @@
         <v>257</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>258</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3039,13 @@
         <v>92787</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H36" s="7">
         <v>119</v>
@@ -3057,13 +3054,13 @@
         <v>94129</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M36" s="7">
         <v>237</v>
@@ -3072,13 +3069,13 @@
         <v>186917</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,13 +3090,13 @@
         <v>96104</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H37" s="7">
         <v>112</v>
@@ -3108,13 +3105,13 @@
         <v>81247</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M37" s="7">
         <v>217</v>
@@ -3123,13 +3120,13 @@
         <v>177351</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,7 +3182,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP3111_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3111_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BA783F2-03D9-4573-A99A-CFE2B525899D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{328A0F63-316D-43A5-A8E5-E7F34DA7EDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0FCB18D-8581-41EF-8880-124B28BFF6EE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BE8AB2F9-C96C-4B6E-84DE-A123E0221416}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="280">
   <si>
     <t>Menores según la frecuencia de bebe refrescos u otras bebidas que contienen azúcar en 2023 (Tasa respuesta: 96,35%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,796 +71,808 @@
     <t>Nunca</t>
   </si>
   <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
   </si>
   <si>
     <t>menos de 1 vez semana</t>
   </si>
   <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>1 ó 2 veces semana</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>3 ó 4 veces semana</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>5 ó 6 veces semana</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>Todos los días</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
   </si>
   <si>
     <t>15,09%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
   </si>
   <si>
     <t>14,28%</t>
   </si>
   <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>1 ó 2 veces semana</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>3 ó 4 veces semana</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>5 ó 6 veces semana</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>Todos los días</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
   </si>
   <si>
     <t>14,62%</t>
   </si>
   <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
   </si>
   <si>
     <t>13,15%</t>
   </si>
   <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1275,7 +1287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4E5057-4EA0-4FC6-B499-BF9AB952692D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACECB396-0B8A-4F5A-8954-44A7FA58C2E4}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1393,10 +1405,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D4" s="7">
-        <v>13593</v>
+        <v>18196</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1408,10 +1420,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>17655</v>
+        <v>14341</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1426,7 +1438,7 @@
         <v>57</v>
       </c>
       <c r="N4" s="7">
-        <v>31247</v>
+        <v>32537</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1444,10 +1456,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>10794</v>
+        <v>6957</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1459,10 +1471,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I5" s="7">
-        <v>6983</v>
+        <v>10992</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1477,7 +1489,7 @@
         <v>36</v>
       </c>
       <c r="N5" s="7">
-        <v>17777</v>
+        <v>17948</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1495,10 +1507,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="7">
-        <v>8121</v>
+        <v>6695</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1510,10 +1522,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I6" s="7">
-        <v>6837</v>
+        <v>8663</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1528,7 +1540,7 @@
         <v>26</v>
       </c>
       <c r="N6" s="7">
-        <v>14958</v>
+        <v>15358</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1546,10 +1558,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>4561</v>
+        <v>6016</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1561,10 +1573,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>5902</v>
+        <v>4989</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1579,7 +1591,7 @@
         <v>19</v>
       </c>
       <c r="N7" s="7">
-        <v>10463</v>
+        <v>11005</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1597,10 +1609,10 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>4084</v>
+        <v>4725</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -1612,10 +1624,10 @@
         <v>53</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>4981</v>
+        <v>4171</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -1630,7 +1642,7 @@
         <v>15</v>
       </c>
       <c r="N8" s="7">
-        <v>9065</v>
+        <v>8895</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -1648,49 +1660,49 @@
         <v>60</v>
       </c>
       <c r="C9" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D9" s="7">
-        <v>1992</v>
+        <v>3906</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>3</v>
+      </c>
+      <c r="I9" s="7">
+        <v>2129</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="7">
-        <v>8</v>
-      </c>
-      <c r="I9" s="7">
-        <v>3934</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
       </c>
       <c r="N9" s="7">
-        <v>5926</v>
+        <v>6035</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1699,102 +1711,102 @@
         <v>3</v>
       </c>
       <c r="C10" s="7">
+        <v>83</v>
+      </c>
+      <c r="D10" s="7">
+        <v>46495</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="7">
         <v>81</v>
       </c>
-      <c r="D10" s="7">
-        <v>43144</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="7">
-        <v>83</v>
-      </c>
       <c r="I10" s="7">
-        <v>46293</v>
+        <v>45285</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M10" s="7">
         <v>164</v>
       </c>
       <c r="N10" s="7">
-        <v>89436</v>
+        <v>91779</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="7">
+        <v>44</v>
+      </c>
+      <c r="D11" s="7">
+        <v>26766</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="7">
         <v>52</v>
       </c>
-      <c r="D11" s="7">
-        <v>32706</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>34733</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="7">
-        <v>44</v>
-      </c>
-      <c r="I11" s="7">
-        <v>26835</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M11" s="7">
         <v>96</v>
       </c>
       <c r="N11" s="7">
-        <v>59542</v>
+        <v>61499</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1803,49 +1815,49 @@
         <v>20</v>
       </c>
       <c r="C12" s="7">
+        <v>40</v>
+      </c>
+      <c r="D12" s="7">
+        <v>23046</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="7">
         <v>67</v>
       </c>
-      <c r="D12" s="7">
-        <v>39037</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="I12" s="7">
+        <v>41335</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="7">
-        <v>40</v>
-      </c>
-      <c r="I12" s="7">
-        <v>23211</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M12" s="7">
         <v>107</v>
       </c>
       <c r="N12" s="7">
-        <v>62248</v>
+        <v>64381</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1854,49 +1866,49 @@
         <v>30</v>
       </c>
       <c r="C13" s="7">
+        <v>63</v>
+      </c>
+      <c r="D13" s="7">
+        <v>35398</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="7">
         <v>58</v>
       </c>
-      <c r="D13" s="7">
-        <v>40298</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>42454</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="7">
-        <v>63</v>
-      </c>
-      <c r="I13" s="7">
-        <v>35599</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
       </c>
       <c r="N13" s="7">
-        <v>75897</v>
+        <v>77852</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1905,49 +1917,49 @@
         <v>40</v>
       </c>
       <c r="C14" s="7">
+        <v>46</v>
+      </c>
+      <c r="D14" s="7">
+        <v>32393</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="7">
         <v>33</v>
       </c>
-      <c r="D14" s="7">
-        <v>20838</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>21800</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H14" s="7">
-        <v>46</v>
-      </c>
-      <c r="I14" s="7">
-        <v>30744</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M14" s="7">
         <v>79</v>
       </c>
       <c r="N14" s="7">
-        <v>51582</v>
+        <v>54193</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,49 +1968,49 @@
         <v>50</v>
       </c>
       <c r="C15" s="7">
+        <v>26</v>
+      </c>
+      <c r="D15" s="7">
+        <v>15774</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="7">
         <v>37</v>
       </c>
-      <c r="D15" s="7">
-        <v>24634</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="I15" s="7">
+        <v>24284</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H15" s="7">
-        <v>26</v>
-      </c>
-      <c r="I15" s="7">
-        <v>16688</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M15" s="7">
         <v>63</v>
       </c>
       <c r="N15" s="7">
-        <v>41321</v>
+        <v>40057</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2007,49 +2019,49 @@
         <v>60</v>
       </c>
       <c r="C16" s="7">
+        <v>39</v>
+      </c>
+      <c r="D16" s="7">
+        <v>25923</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="7">
         <v>28</v>
       </c>
-      <c r="D16" s="7">
-        <v>17204</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>17353</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H16" s="7">
-        <v>39</v>
-      </c>
-      <c r="I16" s="7">
-        <v>25688</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M16" s="7">
         <v>67</v>
       </c>
       <c r="N16" s="7">
-        <v>42892</v>
+        <v>43276</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,102 +2070,102 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
+        <v>258</v>
+      </c>
+      <c r="D17" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="7">
         <v>275</v>
       </c>
-      <c r="D17" s="7">
-        <v>174717</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="7">
-        <v>258</v>
-      </c>
       <c r="I17" s="7">
-        <v>158765</v>
+        <v>181959</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M17" s="7">
         <v>533</v>
       </c>
       <c r="N17" s="7">
-        <v>333482</v>
+        <v>341259</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="7">
+        <v>32</v>
+      </c>
+      <c r="D18" s="7">
+        <v>22694</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" s="7">
         <v>24</v>
       </c>
-      <c r="D18" s="7">
-        <v>22365</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="I18" s="7">
+        <v>23985</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H18" s="7">
-        <v>32</v>
-      </c>
-      <c r="I18" s="7">
-        <v>22911</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M18" s="7">
         <v>56</v>
       </c>
       <c r="N18" s="7">
-        <v>45276</v>
+        <v>46679</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2162,49 +2174,49 @@
         <v>20</v>
       </c>
       <c r="C19" s="7">
+        <v>50</v>
+      </c>
+      <c r="D19" s="7">
+        <v>37403</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H19" s="7">
         <v>52</v>
       </c>
-      <c r="D19" s="7">
-        <v>42461</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="I19" s="7">
+        <v>45452</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H19" s="7">
-        <v>50</v>
-      </c>
-      <c r="I19" s="7">
-        <v>37499</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M19" s="7">
         <v>102</v>
       </c>
       <c r="N19" s="7">
-        <v>79960</v>
+        <v>82855</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2213,49 +2225,49 @@
         <v>30</v>
       </c>
       <c r="C20" s="7">
+        <v>49</v>
+      </c>
+      <c r="D20" s="7">
+        <v>34664</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" s="7">
         <v>62</v>
       </c>
-      <c r="D20" s="7">
-        <v>49453</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="I20" s="7">
+        <v>51171</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H20" s="7">
-        <v>49</v>
-      </c>
-      <c r="I20" s="7">
-        <v>35717</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M20" s="7">
         <v>111</v>
       </c>
       <c r="N20" s="7">
-        <v>85170</v>
+        <v>85835</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,46 +2279,46 @@
         <v>45</v>
       </c>
       <c r="D21" s="7">
-        <v>33996</v>
+        <v>35199</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H21" s="7">
         <v>45</v>
       </c>
       <c r="I21" s="7">
-        <v>34665</v>
+        <v>36487</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M21" s="7">
         <v>90</v>
       </c>
       <c r="N21" s="7">
-        <v>68661</v>
+        <v>71686</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P21" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="Q21" s="7" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2315,49 +2327,49 @@
         <v>50</v>
       </c>
       <c r="C22" s="7">
+        <v>34</v>
+      </c>
+      <c r="D22" s="7">
+        <v>25089</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H22" s="7">
         <v>30</v>
       </c>
-      <c r="D22" s="7">
-        <v>27189</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="I22" s="7">
+        <v>27498</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="H22" s="7">
-        <v>34</v>
-      </c>
-      <c r="I22" s="7">
-        <v>26676</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
       </c>
       <c r="N22" s="7">
-        <v>53865</v>
+        <v>52587</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2366,49 +2378,49 @@
         <v>60</v>
       </c>
       <c r="C23" s="7">
+        <v>23</v>
+      </c>
+      <c r="D23" s="7">
+        <v>18024</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H23" s="7">
         <v>30</v>
       </c>
-      <c r="D23" s="7">
-        <v>27013</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="I23" s="7">
+        <v>27896</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H23" s="7">
-        <v>23</v>
-      </c>
-      <c r="I23" s="7">
-        <v>18645</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M23" s="7">
         <v>53</v>
       </c>
       <c r="N23" s="7">
-        <v>45658</v>
+        <v>45921</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,49 +2429,49 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>233</v>
+      </c>
+      <c r="D24" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="7">
         <v>243</v>
       </c>
-      <c r="D24" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="7">
-        <v>233</v>
-      </c>
       <c r="I24" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M24" s="7">
         <v>476</v>
       </c>
       <c r="N24" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,10 +2482,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D25" s="7">
-        <v>13531</v>
+        <v>25206</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>179</v>
@@ -2485,10 +2497,10 @@
         <v>181</v>
       </c>
       <c r="H25" s="7">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I25" s="7">
-        <v>25941</v>
+        <v>13999</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>182</v>
@@ -2503,7 +2515,7 @@
         <v>53</v>
       </c>
       <c r="N25" s="7">
-        <v>39472</v>
+        <v>39206</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>185</v>
@@ -2521,10 +2533,10 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D26" s="7">
-        <v>61969</v>
+        <v>43339</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>188</v>
@@ -2536,34 +2548,34 @@
         <v>190</v>
       </c>
       <c r="H26" s="7">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="I26" s="7">
-        <v>43894</v>
+        <v>64394</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M26" s="7">
         <v>136</v>
       </c>
       <c r="N26" s="7">
-        <v>105863</v>
+        <v>107733</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,13 +2584,13 @@
         <v>30</v>
       </c>
       <c r="C27" s="7">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D27" s="7">
-        <v>63775</v>
+        <v>63001</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>197</v>
@@ -2587,16 +2599,16 @@
         <v>198</v>
       </c>
       <c r="H27" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I27" s="7">
-        <v>62134</v>
+        <v>65062</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>200</v>
@@ -2605,7 +2617,7 @@
         <v>168</v>
       </c>
       <c r="N27" s="7">
-        <v>125908</v>
+        <v>128063</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>201</v>
@@ -2623,10 +2635,10 @@
         <v>40</v>
       </c>
       <c r="C28" s="7">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D28" s="7">
-        <v>59423</v>
+        <v>45595</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>204</v>
@@ -2638,31 +2650,31 @@
         <v>206</v>
       </c>
       <c r="H28" s="7">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I28" s="7">
-        <v>45795</v>
+        <v>62192</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M28" s="7">
         <v>139</v>
       </c>
       <c r="N28" s="7">
-        <v>105219</v>
+        <v>107787</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>211</v>
@@ -2674,10 +2686,10 @@
         <v>50</v>
       </c>
       <c r="C29" s="7">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D29" s="7">
-        <v>36881</v>
+        <v>63337</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>212</v>
@@ -2689,34 +2701,34 @@
         <v>214</v>
       </c>
       <c r="H29" s="7">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I29" s="7">
-        <v>45784</v>
+        <v>38406</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>83</v>
+        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>95</v>
       </c>
       <c r="N29" s="7">
-        <v>82665</v>
+        <v>101744</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,49 +2737,49 @@
         <v>60</v>
       </c>
       <c r="C30" s="7">
+        <v>42</v>
+      </c>
+      <c r="D30" s="7">
+        <v>30747</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H30" s="7">
         <v>44</v>
       </c>
-      <c r="D30" s="7">
-        <v>49896</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H30" s="7">
-        <v>42</v>
-      </c>
       <c r="I30" s="7">
-        <v>32979</v>
+        <v>56964</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M30" s="7">
         <v>86</v>
       </c>
       <c r="N30" s="7">
-        <v>82875</v>
+        <v>87712</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,49 +2788,49 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>338</v>
+      </c>
+      <c r="D31" s="7">
+        <v>271226</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="7">
         <v>339</v>
       </c>
-      <c r="D31" s="7">
-        <v>285474</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H31" s="7">
-        <v>338</v>
-      </c>
       <c r="I31" s="7">
-        <v>256528</v>
+        <v>301018</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M31" s="7">
         <v>677</v>
       </c>
       <c r="N31" s="7">
-        <v>542002</v>
+        <v>572244</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,49 +2841,49 @@
         <v>10</v>
       </c>
       <c r="C32" s="7">
+        <v>140</v>
+      </c>
+      <c r="D32" s="7">
+        <v>92862</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H32" s="7">
         <v>122</v>
       </c>
-      <c r="D32" s="7">
-        <v>82194</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H32" s="7">
-        <v>140</v>
-      </c>
       <c r="I32" s="7">
-        <v>93343</v>
+        <v>87059</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>106</v>
+        <v>232</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M32" s="7">
         <v>262</v>
       </c>
       <c r="N32" s="7">
-        <v>175538</v>
+        <v>179921</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>232</v>
+        <v>41</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>38</v>
+        <v>234</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>79</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2880,49 +2892,49 @@
         <v>20</v>
       </c>
       <c r="C33" s="7">
+        <v>166</v>
+      </c>
+      <c r="D33" s="7">
+        <v>110744</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H33" s="7">
         <v>215</v>
       </c>
-      <c r="D33" s="7">
-        <v>154261</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H33" s="7">
-        <v>166</v>
-      </c>
       <c r="I33" s="7">
-        <v>111587</v>
+        <v>162173</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M33" s="7">
         <v>381</v>
       </c>
       <c r="N33" s="7">
-        <v>265848</v>
+        <v>272917</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>241</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,49 +2943,49 @@
         <v>30</v>
       </c>
       <c r="C34" s="7">
+        <v>206</v>
+      </c>
+      <c r="D34" s="7">
+        <v>139758</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H34" s="7">
         <v>220</v>
       </c>
-      <c r="D34" s="7">
-        <v>161648</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H34" s="7">
-        <v>206</v>
-      </c>
       <c r="I34" s="7">
-        <v>140286</v>
+        <v>167350</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M34" s="7">
         <v>426</v>
       </c>
       <c r="N34" s="7">
-        <v>301934</v>
+        <v>307108</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,49 +2994,49 @@
         <v>40</v>
       </c>
       <c r="C35" s="7">
+        <v>169</v>
+      </c>
+      <c r="D35" s="7">
+        <v>119203</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H35" s="7">
         <v>158</v>
       </c>
-      <c r="D35" s="7">
-        <v>118819</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="H35" s="7">
-        <v>169</v>
-      </c>
       <c r="I35" s="7">
-        <v>117106</v>
+        <v>125468</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M35" s="7">
         <v>327</v>
       </c>
       <c r="N35" s="7">
-        <v>235924</v>
+        <v>244671</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>157</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,49 +3045,49 @@
         <v>50</v>
       </c>
       <c r="C36" s="7">
+        <v>119</v>
+      </c>
+      <c r="D36" s="7">
+        <v>108924</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H36" s="7">
         <v>118</v>
       </c>
-      <c r="D36" s="7">
-        <v>92787</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H36" s="7">
-        <v>119</v>
-      </c>
       <c r="I36" s="7">
-        <v>94129</v>
+        <v>94359</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M36" s="7">
         <v>237</v>
       </c>
       <c r="N36" s="7">
-        <v>186917</v>
+        <v>203283</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,49 +3096,49 @@
         <v>60</v>
       </c>
       <c r="C37" s="7">
+        <v>112</v>
+      </c>
+      <c r="D37" s="7">
+        <v>78600</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H37" s="7">
         <v>105</v>
       </c>
-      <c r="D37" s="7">
-        <v>96104</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="H37" s="7">
-        <v>112</v>
-      </c>
       <c r="I37" s="7">
-        <v>81247</v>
+        <v>104343</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M37" s="7">
         <v>217</v>
       </c>
       <c r="N37" s="7">
-        <v>177351</v>
+        <v>182943</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,54 +3147,54 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>912</v>
+      </c>
+      <c r="D38" s="7">
+        <v>650092</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="7">
         <v>938</v>
       </c>
-      <c r="D38" s="7">
-        <v>705813</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H38" s="7">
-        <v>912</v>
-      </c>
       <c r="I38" s="7">
-        <v>637698</v>
+        <v>740752</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M38" s="7">
         <v>1850</v>
       </c>
       <c r="N38" s="7">
-        <v>1343511</v>
+        <v>1390844</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
